--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D168C4-F6F0-45F0-B424-E9FA76C1A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD38A75-6122-40F0-B5DB-3201141D8E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="4245" windowWidth="21600" windowHeight="11355" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="29655" yWindow="4335" windowWidth="21600" windowHeight="12645" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!MonsterGroup" sheetId="1" r:id="rId1"/>
@@ -142,18 +142,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,7 +478,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -483,37 +489,37 @@
     <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -643,7 +649,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -651,7 +657,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -659,7 +665,7 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -667,7 +673,7 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -675,7 +681,7 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD38A75-6122-40F0-B5DB-3201141D8E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525C3B0D-01FF-471B-A6E1-8ED85703A624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="4335" windowWidth="21600" windowHeight="12645" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="36015" yWindow="3165" windowWidth="17700" windowHeight="11385" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!MonsterGroup" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Kind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>;해당 그룹에 속할 몬스터 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +482,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -491,7 +495,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -542,7 +546,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1001</v>
@@ -559,7 +563,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1001</v>
@@ -576,7 +580,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1001</v>
@@ -593,7 +597,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1001</v>
@@ -610,7 +614,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1001</v>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CProject\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525C3B0D-01FF-471B-A6E1-8ED85703A624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE55F7B9-60B5-4AE5-935A-A8094EFF73D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36015" yWindow="3165" windowWidth="17700" windowHeight="11385" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="23610" yWindow="0" windowWidth="14790" windowHeight="21000" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!MonsterGroup" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -482,7 +493,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -640,7 +651,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE55F7B9-60B5-4AE5-935A-A8094EFF73D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6D4871-2E74-4754-9C88-65EF3B55C03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23610" yWindow="0" windowWidth="14790" windowHeight="21000" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="4200" yWindow="1455" windowWidth="21600" windowHeight="12735" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!MonsterGroup" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -583,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -600,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -617,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>401</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6D4871-2E74-4754-9C88-65EF3B55C03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5E3304-35E5-4C13-928E-B3F8E1FD49A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1455" windowWidth="21600" windowHeight="12735" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!MonsterGroup" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
-  <si>
-    <t>Kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>;키값</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +80,40 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmountDelayTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortDelayTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;맵에서 어떤 포지션으로 가져오는지 포지션 정보
+* Level 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; Aomunt에 지정된 몬스터가 해당 시간마다 한마리씩 스폰됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmountValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 한번에 스폰 시킬 몬스터 수
+* 만약 몬스터가 부족할 경우 남은 숫자만 스폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; Amount에 등록된 몬스터가 다 스폰되면 다음 sort에 지정된 그룹으로 넘어가는 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +154,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,11 +193,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -174,6 +207,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -502,43 +544,71 @@
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -554,8 +624,11 @@
       <c r="E3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -571,8 +644,11 @@
       <c r="E4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -588,8 +664,11 @@
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -605,8 +684,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -623,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -648,56 +730,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5E3304-35E5-4C13-928E-B3F8E1FD49A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80F4750-D22B-420C-BB4E-8BD01FBB84FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!MonsterGroup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>;키값</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>;Monster_kind를 통해 불러올 몬스터 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,6 +110,37 @@
   </si>
   <si>
     <t>; Amount에 등록된 몬스터가 다 스폰되면 다음 sort에 지정된 그룹으로 넘어가는 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Order 값이 중첩되면 함께 스폰된다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>단, Order 값이 여러 개인 상황에서 OrderDelayTime 값이 중첩될 경우 Index 의 오름차순으로 높은 우선 순위의 값이 오버라이드하여 적용된다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +161,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -193,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,7 +251,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,27 +571,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -564,91 +603,94 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
         <v>1001</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>100</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>100</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>1001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -656,19 +698,25 @@
         <v>1001</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -676,7 +724,7 @@
         <v>1001</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -684,11 +732,14 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -696,7 +747,7 @@
         <v>1001</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -704,8 +755,14 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -713,13 +770,19 @@
         <v>1001</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -730,22 +793,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="79.75" customWidth="1"/>
     <col min="3" max="3" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -761,7 +824,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -769,7 +832,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -777,42 +840,50 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
+    <row r="11" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80F4750-D22B-420C-BB4E-8BD01FBB84FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B980DB-585D-45CD-A536-C1B6B408D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!MonsterGroup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>;키값</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -611,7 +611,7 @@
       <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -635,6 +635,9 @@
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -795,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B980DB-585D-45CD-A536-C1B6B408D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE8F02-1758-4BAF-AA69-853ED0C479F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>;키값</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,14 @@
   </si>
   <si>
     <t>SpawnTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;웨이브 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;스테이지 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +207,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -223,13 +243,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,8 +429,68 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,15 +806,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J9" sqref="A9:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
@@ -587,36 +822,44 @@
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="I1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -640,152 +883,397 @@
       <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="I2" s="4"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>110011</v>
+      </c>
+      <c r="B3" s="16">
         <v>1001</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="16">
+        <v>111</v>
+      </c>
+      <c r="D3" s="16">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
         <v>100</v>
       </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24">
+        <v>1</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>110021</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="19">
+        <v>111</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19">
         <v>100</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H4" s="19">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+      <c r="J4" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>110022</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="19">
+        <v>211</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>100</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>110023</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="16">
+        <v>111</v>
+      </c>
+      <c r="D6" s="16">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>100</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="24">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>110031</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="16">
+        <v>211</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>100</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="24">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21">
+        <v>110032</v>
+      </c>
+      <c r="B8" s="22">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="22">
+        <v>112</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22">
+        <v>100</v>
+      </c>
+      <c r="H8" s="22">
+        <v>2600</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+      <c r="J8" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <f>A3+100000</f>
+        <v>210011</v>
+      </c>
+      <c r="B9" s="26">
+        <v>2001</v>
+      </c>
+      <c r="C9" s="26">
+        <v>111</v>
+      </c>
+      <c r="D9" s="26">
+        <v>3</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26">
+        <v>100</v>
+      </c>
+      <c r="H9" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
+      <c r="J9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <f t="shared" ref="A10:A14" si="0">A4+100000</f>
+        <v>210021</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2002</v>
+      </c>
+      <c r="C10" s="19">
+        <v>111</v>
+      </c>
+      <c r="D10" s="19">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>100</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <f t="shared" si="0"/>
+        <v>210022</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2002</v>
+      </c>
+      <c r="C11" s="19">
+        <v>211</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>100</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <f t="shared" si="0"/>
+        <v>210023</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2003</v>
+      </c>
+      <c r="C12" s="16">
+        <v>111</v>
+      </c>
+      <c r="D12" s="16">
         <v>4</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>100</v>
+      </c>
+      <c r="H12" s="16">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="24">
+        <v>1</v>
+      </c>
+      <c r="J12" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <f t="shared" si="0"/>
+        <v>210031</v>
+      </c>
+      <c r="B13" s="16">
+        <v>2003</v>
+      </c>
+      <c r="C13" s="16">
+        <v>211</v>
+      </c>
+      <c r="D13" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
         <v>100</v>
       </c>
-      <c r="H4" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="H13" s="16">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="24">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1001</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+    </row>
+    <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21">
+        <f t="shared" si="0"/>
+        <v>210032</v>
+      </c>
+      <c r="B14" s="22">
+        <v>2003</v>
+      </c>
+      <c r="C14" s="22">
+        <v>112</v>
+      </c>
+      <c r="D14" s="22">
+        <v>1</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22">
         <v>100</v>
       </c>
-      <c r="H5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1001</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1001</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1001</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
+      <c r="H14" s="22">
+        <v>2600</v>
+      </c>
+      <c r="I14" s="22">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE8F02-1758-4BAF-AA69-853ED0C479F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C075F-CCBF-4145-8989-B343AE34CC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!MonsterGroup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>;키값</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -304,21 +304,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -404,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,27 +432,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -477,19 +459,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,7 +782,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="A9:J14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -883,396 +856,400 @@
       <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="14"/>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>110011</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3">
         <v>1001</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3">
         <v>111</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16">
-        <v>1</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="24">
-        <v>1</v>
-      </c>
-      <c r="J3" s="17">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <v>110021</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>1002</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>111</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>3</v>
       </c>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
         <v>100</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <v>1000</v>
       </c>
-      <c r="I4" s="19">
-        <v>1</v>
-      </c>
-      <c r="J4" s="20">
+      <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="J4" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>110022</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>1002</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>211</v>
       </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
         <v>100</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <v>1000</v>
       </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="20">
+      <c r="I5" s="17">
+        <v>1</v>
+      </c>
+      <c r="J5" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>110023</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6">
         <v>1003</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6">
         <v>111</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>100</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6">
         <v>2000</v>
       </c>
-      <c r="I6" s="24">
-        <v>1</v>
-      </c>
-      <c r="J6" s="17">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>110031</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7">
         <v>1003</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7">
         <v>211</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7">
         <v>2000</v>
       </c>
-      <c r="I7" s="24">
-        <v>1</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>110032</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <v>1003</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <v>112</v>
       </c>
-      <c r="D8" s="22">
-        <v>1</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="F8" s="22">
-        <v>1</v>
-      </c>
-      <c r="G8" s="22">
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="20">
         <v>100</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="20">
         <v>2600</v>
       </c>
-      <c r="I8" s="22">
-        <v>1</v>
-      </c>
-      <c r="J8" s="23">
+      <c r="I8" s="20">
+        <v>1</v>
+      </c>
+      <c r="J8" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="A9" s="22">
         <f>A3+100000</f>
         <v>210011</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="23">
         <v>2001</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="23">
         <v>111</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="23">
         <v>3</v>
       </c>
-      <c r="E9" s="26">
-        <v>1</v>
-      </c>
-      <c r="F9" s="26">
-        <v>1</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="23">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23">
         <v>100</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="23">
         <v>0</v>
       </c>
-      <c r="I9" s="27">
-        <v>1</v>
-      </c>
-      <c r="J9" s="28">
+      <c r="I9" s="23">
+        <v>1</v>
+      </c>
+      <c r="J9" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <f t="shared" ref="A10:A14" si="0">A4+100000</f>
         <v>210021</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <v>2002</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="17">
         <v>111</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="17">
         <v>3</v>
       </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
         <v>100</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>1000</v>
       </c>
-      <c r="I10" s="19">
-        <v>1</v>
-      </c>
-      <c r="J10" s="20">
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>210022</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <v>2002</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>211</v>
       </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
         <v>100</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <v>1000</v>
       </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="20">
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>210023</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12">
         <v>2003</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12">
         <v>111</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>100</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12">
         <v>2000</v>
       </c>
-      <c r="I12" s="24">
-        <v>1</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>210031</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13">
         <v>2003</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13">
         <v>211</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>100</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13">
         <v>2000</v>
       </c>
-      <c r="I13" s="24">
-        <v>1</v>
-      </c>
-      <c r="J13" s="17">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>210032</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="20">
         <v>2003</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="20">
         <v>112</v>
       </c>
-      <c r="D14" s="22">
-        <v>1</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22">
+      <c r="D14" s="20">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <v>1</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
         <v>100</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="20">
         <v>2600</v>
       </c>
-      <c r="I14" s="22">
-        <v>1</v>
-      </c>
-      <c r="J14" s="23">
+      <c r="I14" s="20">
+        <v>1</v>
+      </c>
+      <c r="J14" s="21">
         <v>3</v>
       </c>
     </row>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C075F-CCBF-4145-8989-B343AE34CC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872823F1-0C04-46B3-9CBE-52C3E72F18C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>;키값</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -782,7 +782,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -856,12 +856,8 @@
       <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872823F1-0C04-46B3-9CBE-52C3E72F18C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC8D319-F933-4338-8F7C-BAF7D4166175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -389,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,9 +410,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,7 +779,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,39 +797,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -859,104 +856,104 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
         <v>110011</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="22">
         <v>1001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="22">
         <v>111</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="22">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22">
         <v>100</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="22">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="I3" s="22">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>110021</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>1002</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>111</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>3</v>
       </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17">
-        <v>1</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16">
         <v>100</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>1000</v>
       </c>
-      <c r="I4" s="17">
-        <v>1</v>
-      </c>
-      <c r="J4" s="18">
+      <c r="I4" s="16">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>110022</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>1002</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>211</v>
       </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17">
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
         <v>100</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>1000</v>
       </c>
-      <c r="I5" s="17">
-        <v>1</v>
-      </c>
-      <c r="J5" s="18">
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>110023</v>
       </c>
       <c r="B6">
@@ -983,12 +980,12 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>110031</v>
       </c>
       <c r="B7">
@@ -1015,143 +1012,143 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>110032</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>1003</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>112</v>
       </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1</v>
-      </c>
-      <c r="F8" s="20">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20">
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
         <v>100</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>2600</v>
       </c>
-      <c r="I8" s="20">
-        <v>1</v>
-      </c>
-      <c r="J8" s="21">
+      <c r="I8" s="19">
+        <v>1</v>
+      </c>
+      <c r="J8" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <f>A3+100000</f>
         <v>210011</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>2001</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>111</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>3</v>
       </c>
-      <c r="E9" s="23">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22">
         <v>100</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>0</v>
       </c>
-      <c r="I9" s="23">
-        <v>1</v>
-      </c>
-      <c r="J9" s="24">
+      <c r="I9" s="22">
+        <v>1</v>
+      </c>
+      <c r="J9" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <f t="shared" ref="A10:A14" si="0">A4+100000</f>
         <v>210021</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>2002</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>111</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>3</v>
       </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
         <v>100</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>1000</v>
       </c>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18">
+      <c r="I10" s="16">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>210022</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>2002</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>211</v>
       </c>
-      <c r="D11" s="17">
-        <v>1</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
         <v>100</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>1000</v>
       </c>
-      <c r="I11" s="17">
-        <v>1</v>
-      </c>
-      <c r="J11" s="18">
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>210023</v>
       </c>
@@ -1179,12 +1176,12 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>210031</v>
       </c>
@@ -1212,46 +1209,47 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>210032</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>2003</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>112</v>
       </c>
-      <c r="D14" s="20">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20">
-        <v>1</v>
-      </c>
-      <c r="F14" s="20">
-        <v>1</v>
-      </c>
-      <c r="G14" s="20">
+      <c r="D14" s="19">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
         <v>100</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>2600</v>
       </c>
-      <c r="I14" s="20">
-        <v>1</v>
-      </c>
-      <c r="J14" s="21">
+      <c r="I14" s="19">
+        <v>1</v>
+      </c>
+      <c r="J14" s="20">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1343,7 +1341,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="5" t="s">

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC8D319-F933-4338-8F7C-BAF7D4166175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264C18C3-7490-4F32-B465-B93765FC754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="20415" yWindow="0" windowWidth="18075" windowHeight="21000" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!MonsterGroup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>;키값</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,9 @@
   <si>
     <t>;스테이지 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -244,7 +247,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -262,40 +265,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -322,17 +295,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -417,17 +379,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -435,15 +406,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -453,20 +415,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -776,18 +749,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="4" width="12.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
@@ -800,36 +771,36 @@
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -857,110 +828,110 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="19">
         <v>110011</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="19">
         <v>1001</v>
       </c>
-      <c r="C3" s="22">
-        <v>111</v>
-      </c>
-      <c r="D3" s="22">
-        <v>3</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="22">
-        <v>1</v>
-      </c>
-      <c r="G3" s="22">
-        <v>100</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="C3" s="19">
+        <v>10011</v>
+      </c>
+      <c r="D3" s="19">
+        <v>3</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19">
+        <v>100</v>
+      </c>
+      <c r="H3" s="19">
         <v>0</v>
       </c>
-      <c r="I3" s="22">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23">
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>110021</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>1002</v>
       </c>
-      <c r="C4" s="16">
-        <v>111</v>
-      </c>
-      <c r="D4" s="16">
-        <v>3</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16">
-        <v>100</v>
-      </c>
-      <c r="H4" s="16">
+      <c r="C4" s="14">
+        <v>10011</v>
+      </c>
+      <c r="D4" s="14">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>100</v>
+      </c>
+      <c r="H4" s="14">
         <v>1000</v>
       </c>
-      <c r="I4" s="16">
-        <v>1</v>
-      </c>
-      <c r="J4" s="17">
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>110022</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>1002</v>
       </c>
-      <c r="C5" s="16">
-        <v>211</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16">
-        <v>100</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="C5" s="14">
+        <v>20011</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>100</v>
+      </c>
+      <c r="H5" s="14">
         <v>1000</v>
       </c>
-      <c r="I5" s="16">
-        <v>1</v>
-      </c>
-      <c r="J5" s="17">
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>110023</v>
+      <c r="A6">
+        <v>110031</v>
       </c>
       <c r="B6">
         <v>1003</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <v>10011</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -980,19 +951,19 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>110031</v>
+      <c r="A7">
+        <v>110032</v>
       </c>
       <c r="B7">
         <v>1003</v>
       </c>
       <c r="C7">
-        <v>211</v>
+        <v>20011</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1012,151 +983,151 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
-        <v>110032</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="A8">
+        <v>110033</v>
+      </c>
+      <c r="B8" s="16">
         <v>1003</v>
       </c>
-      <c r="C8" s="19">
-        <v>112</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19">
-        <v>1</v>
-      </c>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
-        <v>100</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="C8" s="16">
+        <v>10012</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>100</v>
+      </c>
+      <c r="H8" s="16">
         <v>2600</v>
       </c>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="20">
+      <c r="I8" s="16">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <f>A3+100000</f>
         <v>210011</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="19">
         <v>2001</v>
       </c>
-      <c r="C9" s="22">
-        <v>111</v>
-      </c>
-      <c r="D9" s="22">
-        <v>3</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22">
-        <v>1</v>
-      </c>
-      <c r="G9" s="22">
-        <v>100</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="C9" s="19">
+        <v>10011</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>100</v>
+      </c>
+      <c r="H9" s="19">
         <v>0</v>
       </c>
-      <c r="I9" s="22">
-        <v>1</v>
-      </c>
-      <c r="J9" s="23">
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <f t="shared" ref="A10:A14" si="0">A4+100000</f>
         <v>210021</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>2002</v>
       </c>
-      <c r="C10" s="16">
-        <v>111</v>
-      </c>
-      <c r="D10" s="16">
-        <v>3</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>100</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="C10" s="14">
+        <v>10011</v>
+      </c>
+      <c r="D10" s="14">
+        <v>3</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>100</v>
+      </c>
+      <c r="H10" s="14">
         <v>1000</v>
       </c>
-      <c r="I10" s="16">
-        <v>1</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
-        <f t="shared" si="0"/>
+      <c r="A11" s="14">
+        <f>A5+100000</f>
         <v>210022</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>2002</v>
       </c>
-      <c r="C11" s="16">
-        <v>211</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16">
-        <v>100</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="C11" s="14">
+        <v>20011</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <v>100</v>
+      </c>
+      <c r="H11" s="14">
         <v>1000</v>
       </c>
-      <c r="I11" s="16">
-        <v>1</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <f t="shared" si="0"/>
-        <v>210023</v>
+      <c r="A12">
+        <f>A6+100000</f>
+        <v>210031</v>
       </c>
       <c r="B12">
         <v>2003</v>
       </c>
       <c r="C12">
-        <v>111</v>
+        <v>10011</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1176,20 +1147,20 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13">
         <f t="shared" si="0"/>
-        <v>210031</v>
+        <v>210032</v>
       </c>
       <c r="B13">
         <v>2003</v>
       </c>
       <c r="C13">
-        <v>211</v>
+        <v>20011</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1209,45 +1180,515 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <f t="shared" si="0"/>
-        <v>210032</v>
-      </c>
-      <c r="B14" s="19">
+        <v>210033</v>
+      </c>
+      <c r="B14" s="16">
         <v>2003</v>
       </c>
-      <c r="C14" s="19">
-        <v>112</v>
-      </c>
-      <c r="D14" s="19">
-        <v>1</v>
-      </c>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19">
-        <v>1</v>
-      </c>
-      <c r="G14" s="19">
-        <v>100</v>
-      </c>
-      <c r="H14" s="19">
+      <c r="C14" s="16">
+        <v>10012</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>100</v>
+      </c>
+      <c r="H14" s="16">
         <v>2600</v>
       </c>
-      <c r="I14" s="19">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20">
-        <v>3</v>
+      <c r="I14" s="16">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>120011</v>
+      </c>
+      <c r="B15" s="19">
+        <v>3001</v>
+      </c>
+      <c r="C15" s="19">
+        <v>10011</v>
+      </c>
+      <c r="D15" s="19">
+        <v>4</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>200</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>120012</v>
+      </c>
+      <c r="B16" s="22">
+        <v>3001</v>
+      </c>
+      <c r="C16" s="22">
+        <v>20021</v>
+      </c>
+      <c r="D16" s="22">
+        <v>4</v>
+      </c>
+      <c r="E16" s="22">
+        <v>2</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22">
+        <v>200</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>120021</v>
+      </c>
+      <c r="B17" s="23">
+        <v>3002</v>
+      </c>
+      <c r="C17" s="23">
+        <v>10031</v>
+      </c>
+      <c r="D17" s="23">
+        <v>5</v>
+      </c>
+      <c r="E17" s="23">
+        <v>2</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="23">
+        <v>100</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="23">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>120022</v>
+      </c>
+      <c r="B18" s="23">
+        <v>3002</v>
+      </c>
+      <c r="C18" s="23">
+        <v>20022</v>
+      </c>
+      <c r="D18" s="23">
+        <v>3</v>
+      </c>
+      <c r="E18" s="23">
+        <v>2</v>
+      </c>
+      <c r="F18" s="23">
+        <v>1</v>
+      </c>
+      <c r="G18" s="23">
+        <v>100</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>120031</v>
+      </c>
+      <c r="B19" s="22">
+        <v>3003</v>
+      </c>
+      <c r="C19" s="22">
+        <v>10032</v>
+      </c>
+      <c r="D19" s="22">
+        <v>3</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22">
+        <v>1</v>
+      </c>
+      <c r="G19" s="22">
+        <v>100</v>
+      </c>
+      <c r="H19" s="22">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="22">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>120032</v>
+      </c>
+      <c r="B20" s="22">
+        <v>3003</v>
+      </c>
+      <c r="C20" s="22">
+        <v>10042</v>
+      </c>
+      <c r="D20" s="22">
+        <v>3</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22">
+        <v>100</v>
+      </c>
+      <c r="H20" s="22">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="22">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>120033</v>
+      </c>
+      <c r="B21" s="16">
+        <v>3003</v>
+      </c>
+      <c r="C21" s="16">
+        <v>30042</v>
+      </c>
+      <c r="D21" s="16">
+        <v>3</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16">
+        <v>100</v>
+      </c>
+      <c r="H21" s="16">
+        <v>2600</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1</v>
+      </c>
+      <c r="J21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <f>A15+100000</f>
+        <v>220011</v>
+      </c>
+      <c r="B22" s="19">
+        <f>B15+1000</f>
+        <v>4001</v>
+      </c>
+      <c r="C22" s="19">
+        <v>10011</v>
+      </c>
+      <c r="D22" s="19">
+        <v>4</v>
+      </c>
+      <c r="E22" s="19">
+        <v>2</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19">
+        <v>200</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
+        <v>1</v>
+      </c>
+      <c r="J22" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <f t="shared" ref="A23:A28" si="1">A16+100000</f>
+        <v>220012</v>
+      </c>
+      <c r="B23" s="22">
+        <f t="shared" ref="B23:B28" si="2">B16+1000</f>
+        <v>4001</v>
+      </c>
+      <c r="C23" s="22">
+        <v>20021</v>
+      </c>
+      <c r="D23" s="22">
+        <v>4</v>
+      </c>
+      <c r="E23" s="22">
+        <v>2</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22">
+        <v>200</v>
+      </c>
+      <c r="H23" s="22">
+        <v>0</v>
+      </c>
+      <c r="I23" s="22">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <f t="shared" si="1"/>
+        <v>220021</v>
+      </c>
+      <c r="B24" s="23">
+        <f t="shared" si="2"/>
+        <v>4002</v>
+      </c>
+      <c r="C24" s="23">
+        <v>10031</v>
+      </c>
+      <c r="D24" s="23">
+        <v>5</v>
+      </c>
+      <c r="E24" s="23">
+        <v>2</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1</v>
+      </c>
+      <c r="G24" s="23">
+        <v>100</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1000</v>
+      </c>
+      <c r="I24" s="23">
+        <v>1</v>
+      </c>
+      <c r="J24" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
+        <f t="shared" si="1"/>
+        <v>220022</v>
+      </c>
+      <c r="B25" s="23">
+        <f t="shared" si="2"/>
+        <v>4002</v>
+      </c>
+      <c r="C25" s="23">
+        <v>20022</v>
+      </c>
+      <c r="D25" s="23">
+        <v>3</v>
+      </c>
+      <c r="E25" s="23">
+        <v>2</v>
+      </c>
+      <c r="F25" s="23">
+        <v>1</v>
+      </c>
+      <c r="G25" s="23">
+        <v>100</v>
+      </c>
+      <c r="H25" s="23">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="23">
+        <v>1</v>
+      </c>
+      <c r="J25" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <f t="shared" si="1"/>
+        <v>220031</v>
+      </c>
+      <c r="B26" s="22">
+        <f t="shared" si="2"/>
+        <v>4003</v>
+      </c>
+      <c r="C26" s="22">
+        <v>10032</v>
+      </c>
+      <c r="D26" s="22">
+        <v>3</v>
+      </c>
+      <c r="E26" s="22">
+        <v>1</v>
+      </c>
+      <c r="F26" s="22">
+        <v>1</v>
+      </c>
+      <c r="G26" s="22">
+        <v>100</v>
+      </c>
+      <c r="H26" s="22">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="22">
+        <v>1</v>
+      </c>
+      <c r="J26" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
+        <f t="shared" si="1"/>
+        <v>220032</v>
+      </c>
+      <c r="B27" s="22">
+        <f t="shared" si="2"/>
+        <v>4003</v>
+      </c>
+      <c r="C27" s="22">
+        <v>10042</v>
+      </c>
+      <c r="D27" s="22">
+        <v>3</v>
+      </c>
+      <c r="E27" s="22">
+        <v>1</v>
+      </c>
+      <c r="F27" s="22">
+        <v>1</v>
+      </c>
+      <c r="G27" s="22">
+        <v>100</v>
+      </c>
+      <c r="H27" s="22">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="22">
+        <v>1</v>
+      </c>
+      <c r="J27" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16">
+        <f t="shared" si="1"/>
+        <v>220033</v>
+      </c>
+      <c r="B28" s="16">
+        <f t="shared" si="2"/>
+        <v>4003</v>
+      </c>
+      <c r="C28" s="16">
+        <v>30042</v>
+      </c>
+      <c r="D28" s="16">
+        <v>3</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1</v>
+      </c>
+      <c r="F28" s="16">
+        <v>1</v>
+      </c>
+      <c r="G28" s="16">
+        <v>100</v>
+      </c>
+      <c r="H28" s="16">
+        <v>2600</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1</v>
+      </c>
+      <c r="J28" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J29" s="21" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1258,7 +1699,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264C18C3-7490-4F32-B465-B93765FC754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9824B683-F70E-4C0B-9380-A4C53B241F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20415" yWindow="0" windowWidth="18075" windowHeight="21000" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>;키값</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,9 +150,6 @@
   <si>
     <t>;스테이지 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -428,7 +425,27 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -752,7 +769,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1680,14 +1697,13 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J29" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="J29" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sub\SProject\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9824B683-F70E-4C0B-9380-A4C53B241F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D7DEA-ABDA-44A3-BC3E-F0D70DA8A45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20415" yWindow="0" windowWidth="18075" windowHeight="21000" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="28680" yWindow="-1695" windowWidth="29040" windowHeight="17640" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!MonsterGroup" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,32 +410,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -766,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1267,31 +1248,31 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+      <c r="A16">
         <v>120012</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16">
         <v>3001</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16">
         <v>20021</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="E16" s="22">
-        <v>2</v>
-      </c>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>200</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" s="12">
@@ -1302,28 +1283,28 @@
       <c r="A17" s="13">
         <v>120021</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="14">
         <v>3002</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="14">
         <v>10031</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="14">
         <v>5</v>
       </c>
-      <c r="E17" s="23">
-        <v>2</v>
-      </c>
-      <c r="F17" s="23">
-        <v>1</v>
-      </c>
-      <c r="G17" s="23">
-        <v>100</v>
-      </c>
-      <c r="H17" s="23">
+      <c r="E17" s="14">
+        <v>2</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>100</v>
+      </c>
+      <c r="H17" s="14">
         <v>1000</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="14">
         <v>1</v>
       </c>
       <c r="J17" s="15">
@@ -1334,28 +1315,28 @@
       <c r="A18" s="13">
         <v>120022</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="14">
         <v>3002</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="14">
         <v>20022</v>
       </c>
-      <c r="D18" s="23">
-        <v>3</v>
-      </c>
-      <c r="E18" s="23">
-        <v>2</v>
-      </c>
-      <c r="F18" s="23">
-        <v>1</v>
-      </c>
-      <c r="G18" s="23">
-        <v>100</v>
-      </c>
-      <c r="H18" s="23">
+      <c r="D18" s="14">
+        <v>3</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>100</v>
+      </c>
+      <c r="H18" s="14">
         <v>1000</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="14">
         <v>1</v>
       </c>
       <c r="J18" s="15">
@@ -1366,28 +1347,28 @@
       <c r="A19" s="11">
         <v>120031</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19">
         <v>3003</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19">
         <v>10032</v>
       </c>
-      <c r="D19" s="22">
-        <v>3</v>
-      </c>
-      <c r="E19" s="22">
-        <v>1</v>
-      </c>
-      <c r="F19" s="22">
-        <v>1</v>
-      </c>
-      <c r="G19" s="22">
-        <v>100</v>
-      </c>
-      <c r="H19" s="22">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
         <v>2000</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" s="12">
@@ -1398,28 +1379,28 @@
       <c r="A20" s="11">
         <v>120032</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20">
         <v>3003</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20">
         <v>10042</v>
       </c>
-      <c r="D20" s="22">
-        <v>3</v>
-      </c>
-      <c r="E20" s="22">
-        <v>1</v>
-      </c>
-      <c r="F20" s="22">
-        <v>1</v>
-      </c>
-      <c r="G20" s="22">
-        <v>100</v>
-      </c>
-      <c r="H20" s="22">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
         <v>2000</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" s="12">
@@ -1493,33 +1474,33 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23">
         <f t="shared" ref="A23:A28" si="1">A16+100000</f>
         <v>220012</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23">
         <f t="shared" ref="B23:B28" si="2">B16+1000</f>
         <v>4001</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23">
         <v>20021</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23" s="22">
-        <v>2</v>
-      </c>
-      <c r="F23" s="22">
-        <v>1</v>
-      </c>
-      <c r="G23" s="22">
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>200</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" s="12">
@@ -1527,33 +1508,33 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="14">
         <f t="shared" si="1"/>
         <v>220021</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="14">
         <f t="shared" si="2"/>
         <v>4002</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="14">
         <v>10031</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="14">
         <v>5</v>
       </c>
-      <c r="E24" s="23">
-        <v>2</v>
-      </c>
-      <c r="F24" s="23">
-        <v>1</v>
-      </c>
-      <c r="G24" s="23">
-        <v>100</v>
-      </c>
-      <c r="H24" s="23">
+      <c r="E24" s="14">
+        <v>2</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14">
+        <v>100</v>
+      </c>
+      <c r="H24" s="14">
         <v>1000</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="14">
         <v>1</v>
       </c>
       <c r="J24" s="15">
@@ -1561,33 +1542,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
+      <c r="A25" s="14">
         <f t="shared" si="1"/>
         <v>220022</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="14">
         <f t="shared" si="2"/>
         <v>4002</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="14">
         <v>20022</v>
       </c>
-      <c r="D25" s="23">
-        <v>3</v>
-      </c>
-      <c r="E25" s="23">
-        <v>2</v>
-      </c>
-      <c r="F25" s="23">
-        <v>1</v>
-      </c>
-      <c r="G25" s="23">
-        <v>100</v>
-      </c>
-      <c r="H25" s="23">
+      <c r="D25" s="14">
+        <v>3</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14">
+        <v>100</v>
+      </c>
+      <c r="H25" s="14">
         <v>1000</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="14">
         <v>1</v>
       </c>
       <c r="J25" s="15">
@@ -1595,33 +1576,33 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26">
         <f t="shared" si="1"/>
         <v>220031</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26">
         <f t="shared" si="2"/>
         <v>4003</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26">
         <v>10032</v>
       </c>
-      <c r="D26" s="22">
-        <v>3</v>
-      </c>
-      <c r="E26" s="22">
-        <v>1</v>
-      </c>
-      <c r="F26" s="22">
-        <v>1</v>
-      </c>
-      <c r="G26" s="22">
-        <v>100</v>
-      </c>
-      <c r="H26" s="22">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
         <v>2000</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" s="12">
@@ -1629,33 +1610,33 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27">
         <f t="shared" si="1"/>
         <v>220032</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27">
         <f t="shared" si="2"/>
         <v>4003</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27">
         <v>10042</v>
       </c>
-      <c r="D27" s="22">
-        <v>3</v>
-      </c>
-      <c r="E27" s="22">
-        <v>1</v>
-      </c>
-      <c r="F27" s="22">
-        <v>1</v>
-      </c>
-      <c r="G27" s="22">
-        <v>100</v>
-      </c>
-      <c r="H27" s="22">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
         <v>2000</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" s="12">
@@ -1696,14 +1677,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J29" s="21"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D7DEA-ABDA-44A3-BC3E-F0D70DA8A45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77355D6-EEED-4F35-ABB8-9FB1B99ABD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1695" windowWidth="29040" windowHeight="17640" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="28680" yWindow="-1695" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!MonsterGroup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>;키값</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
       </rPr>
       <t>단, Order 값이 여러 개인 상황에서 OrderDelayTime 값이 중첩될 경우 Index 의 오름차순으로 높은 우선 순위의 값이 오버라이드하여 적용된다.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpawnTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -747,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -760,12 +756,11 @@
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -787,17 +782,14 @@
       <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -819,13 +811,10 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>110011</v>
       </c>
@@ -848,16 +837,13 @@
         <v>100</v>
       </c>
       <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>1</v>
-      </c>
-      <c r="J3" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>110021</v>
       </c>
@@ -880,16 +866,13 @@
         <v>100</v>
       </c>
       <c r="H4" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
-      <c r="J4" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>110022</v>
       </c>
@@ -912,16 +895,13 @@
         <v>100</v>
       </c>
       <c r="H5" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>110031</v>
       </c>
@@ -944,16 +924,13 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>2000</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>110032</v>
       </c>
@@ -976,16 +953,13 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>2000</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>110033</v>
       </c>
@@ -1008,16 +982,13 @@
         <v>100</v>
       </c>
       <c r="H8" s="16">
-        <v>2600</v>
-      </c>
-      <c r="I8" s="16">
-        <v>1</v>
-      </c>
-      <c r="J8" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <f>A3+100000</f>
         <v>210011</v>
@@ -1041,16 +1012,13 @@
         <v>100</v>
       </c>
       <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <f t="shared" ref="A10:A14" si="0">A4+100000</f>
         <v>210021</v>
@@ -1074,16 +1042,13 @@
         <v>100</v>
       </c>
       <c r="H10" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="14">
-        <v>1</v>
-      </c>
-      <c r="J10" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <f>A5+100000</f>
         <v>210022</v>
@@ -1107,16 +1072,13 @@
         <v>100</v>
       </c>
       <c r="H11" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="14">
-        <v>1</v>
-      </c>
-      <c r="J11" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>A6+100000</f>
         <v>210031</v>
@@ -1140,16 +1102,13 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>2000</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>210032</v>
@@ -1173,16 +1132,13 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <v>2000</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>210033</v>
@@ -1206,16 +1162,13 @@
         <v>100</v>
       </c>
       <c r="H14" s="16">
-        <v>2600</v>
-      </c>
-      <c r="I14" s="16">
-        <v>1</v>
-      </c>
-      <c r="J14" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>120011</v>
       </c>
@@ -1238,16 +1191,13 @@
         <v>200</v>
       </c>
       <c r="H15" s="19">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>120012</v>
       </c>
@@ -1270,16 +1220,13 @@
         <v>200</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>120021</v>
       </c>
@@ -1302,16 +1249,13 @@
         <v>100</v>
       </c>
       <c r="H17" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="14">
-        <v>1</v>
-      </c>
-      <c r="J17" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>120022</v>
       </c>
@@ -1334,16 +1278,13 @@
         <v>100</v>
       </c>
       <c r="H18" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="14">
-        <v>1</v>
-      </c>
-      <c r="J18" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>120031</v>
       </c>
@@ -1366,16 +1307,13 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <v>2000</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>120032</v>
       </c>
@@ -1398,16 +1336,13 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>2000</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>120033</v>
       </c>
@@ -1430,16 +1365,13 @@
         <v>100</v>
       </c>
       <c r="H21" s="16">
-        <v>2600</v>
-      </c>
-      <c r="I21" s="16">
-        <v>1</v>
-      </c>
-      <c r="J21" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <f>A15+100000</f>
         <v>220011</v>
@@ -1464,16 +1396,13 @@
         <v>200</v>
       </c>
       <c r="H22" s="19">
-        <v>0</v>
-      </c>
-      <c r="I22" s="19">
-        <v>1</v>
-      </c>
-      <c r="J22" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" ref="A23:A28" si="1">A16+100000</f>
         <v>220012</v>
@@ -1498,16 +1427,13 @@
         <v>200</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <f t="shared" si="1"/>
         <v>220021</v>
@@ -1532,16 +1458,13 @@
         <v>100</v>
       </c>
       <c r="H24" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I24" s="14">
-        <v>1</v>
-      </c>
-      <c r="J24" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <f t="shared" si="1"/>
         <v>220022</v>
@@ -1566,16 +1489,13 @@
         <v>100</v>
       </c>
       <c r="H25" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I25" s="14">
-        <v>1</v>
-      </c>
-      <c r="J25" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>220031</v>
@@ -1600,16 +1520,13 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>2000</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>220032</v>
@@ -1634,16 +1551,13 @@
         <v>100</v>
       </c>
       <c r="H27">
-        <v>2000</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <f t="shared" si="1"/>
         <v>220033</v>
@@ -1668,12 +1582,9 @@
         <v>100</v>
       </c>
       <c r="H28" s="16">
-        <v>2600</v>
-      </c>
-      <c r="I28" s="16">
-        <v>1</v>
-      </c>
-      <c r="J28" s="17">
+        <v>1</v>
+      </c>
+      <c r="I28" s="17">
         <v>3</v>
       </c>
     </row>
@@ -1692,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77355D6-EEED-4F35-ABB8-9FB1B99ABD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B0B1A7-7148-49C4-8BF6-3E590BB1F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1695" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="30990" yWindow="120" windowWidth="21600" windowHeight="12735" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!MonsterGroup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>;키값</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>;스테이지 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,6 +411,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -754,13 +770,13 @@
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="4" width="12.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -780,16 +796,19 @@
         <v>10</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -811,10 +830,13 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>110011</v>
       </c>
@@ -833,17 +855,20 @@
       <c r="F3" s="19">
         <v>1</v>
       </c>
-      <c r="G3" s="19">
-        <v>100</v>
+      <c r="G3" s="21">
+        <v>1</v>
       </c>
       <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>110021</v>
       </c>
@@ -862,17 +887,20 @@
       <c r="F4" s="14">
         <v>1</v>
       </c>
-      <c r="G4" s="14">
-        <v>100</v>
+      <c r="G4" s="22">
+        <v>1</v>
       </c>
       <c r="H4" s="14">
-        <v>1</v>
-      </c>
-      <c r="I4" s="15">
+        <v>100</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>110022</v>
       </c>
@@ -891,17 +919,20 @@
       <c r="F5" s="14">
         <v>1</v>
       </c>
-      <c r="G5" s="14">
-        <v>100</v>
+      <c r="G5" s="22">
+        <v>1</v>
       </c>
       <c r="H5" s="14">
-        <v>1</v>
-      </c>
-      <c r="I5" s="15">
+        <v>100</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>110031</v>
       </c>
@@ -920,17 +951,20 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>100</v>
+      <c r="G6" s="23">
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>110032</v>
       </c>
@@ -949,17 +983,20 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>100</v>
+      <c r="G7" s="23">
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>110033</v>
       </c>
@@ -978,17 +1015,20 @@
       <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="16">
-        <v>100</v>
+      <c r="G8" s="24">
+        <v>1</v>
       </c>
       <c r="H8" s="16">
-        <v>1</v>
-      </c>
-      <c r="I8" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <f>A3+100000</f>
         <v>210011</v>
@@ -1008,17 +1048,20 @@
       <c r="F9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="19">
-        <v>100</v>
+      <c r="G9" s="21">
+        <v>1</v>
       </c>
       <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <f t="shared" ref="A10:A14" si="0">A4+100000</f>
         <v>210021</v>
@@ -1038,17 +1081,20 @@
       <c r="F10" s="14">
         <v>1</v>
       </c>
-      <c r="G10" s="14">
-        <v>100</v>
+      <c r="G10" s="22">
+        <v>1</v>
       </c>
       <c r="H10" s="14">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
+        <v>100</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <f>A5+100000</f>
         <v>210022</v>
@@ -1068,17 +1114,20 @@
       <c r="F11" s="14">
         <v>1</v>
       </c>
-      <c r="G11" s="14">
-        <v>100</v>
+      <c r="G11" s="22">
+        <v>1</v>
       </c>
       <c r="H11" s="14">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
+        <v>100</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>A6+100000</f>
         <v>210031</v>
@@ -1098,17 +1147,20 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>100</v>
+      <c r="G12" s="23">
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>210032</v>
@@ -1128,17 +1180,20 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>100</v>
+      <c r="G13" s="23">
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>210033</v>
@@ -1158,17 +1213,20 @@
       <c r="F14" s="16">
         <v>1</v>
       </c>
-      <c r="G14" s="16">
-        <v>100</v>
+      <c r="G14" s="24">
+        <v>1</v>
       </c>
       <c r="H14" s="16">
-        <v>1</v>
-      </c>
-      <c r="I14" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="16">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>120011</v>
       </c>
@@ -1187,17 +1245,20 @@
       <c r="F15" s="19">
         <v>1</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
         <v>200</v>
       </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>120012</v>
       </c>
@@ -1216,17 +1277,20 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="23">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>200</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>120021</v>
       </c>
@@ -1245,17 +1309,20 @@
       <c r="F17" s="14">
         <v>1</v>
       </c>
-      <c r="G17" s="14">
-        <v>100</v>
+      <c r="G17" s="22">
+        <v>1</v>
       </c>
       <c r="H17" s="14">
-        <v>1</v>
-      </c>
-      <c r="I17" s="15">
+        <v>100</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>120022</v>
       </c>
@@ -1274,17 +1341,20 @@
       <c r="F18" s="14">
         <v>1</v>
       </c>
-      <c r="G18" s="14">
-        <v>100</v>
+      <c r="G18" s="22">
+        <v>1</v>
       </c>
       <c r="H18" s="14">
-        <v>1</v>
-      </c>
-      <c r="I18" s="15">
+        <v>100</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>120031</v>
       </c>
@@ -1303,17 +1373,20 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19">
-        <v>100</v>
+      <c r="G19" s="23">
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>120032</v>
       </c>
@@ -1332,17 +1405,20 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20">
-        <v>100</v>
+      <c r="G20" s="23">
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>120033</v>
       </c>
@@ -1361,17 +1437,20 @@
       <c r="F21" s="16">
         <v>1</v>
       </c>
-      <c r="G21" s="16">
-        <v>100</v>
+      <c r="G21" s="24">
+        <v>1</v>
       </c>
       <c r="H21" s="16">
-        <v>1</v>
-      </c>
-      <c r="I21" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1</v>
+      </c>
+      <c r="J21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <f>A15+100000</f>
         <v>220011</v>
@@ -1392,17 +1471,20 @@
       <c r="F22" s="19">
         <v>1</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="21">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19">
         <v>200</v>
       </c>
-      <c r="H22" s="19">
-        <v>1</v>
-      </c>
-      <c r="I22" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="19">
+        <v>1</v>
+      </c>
+      <c r="J22" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" ref="A23:A28" si="1">A16+100000</f>
         <v>220012</v>
@@ -1423,17 +1505,20 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>200</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <f t="shared" si="1"/>
         <v>220021</v>
@@ -1454,17 +1539,20 @@
       <c r="F24" s="14">
         <v>1</v>
       </c>
-      <c r="G24" s="14">
-        <v>100</v>
+      <c r="G24" s="22">
+        <v>1</v>
       </c>
       <c r="H24" s="14">
-        <v>1</v>
-      </c>
-      <c r="I24" s="15">
+        <v>100</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <f t="shared" si="1"/>
         <v>220022</v>
@@ -1485,17 +1573,20 @@
       <c r="F25" s="14">
         <v>1</v>
       </c>
-      <c r="G25" s="14">
-        <v>100</v>
+      <c r="G25" s="22">
+        <v>1</v>
       </c>
       <c r="H25" s="14">
-        <v>1</v>
-      </c>
-      <c r="I25" s="15">
+        <v>100</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+      <c r="J25" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>220031</v>
@@ -1516,17 +1607,20 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>100</v>
+      <c r="G26" s="23">
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>220032</v>
@@ -1547,17 +1641,20 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27">
-        <v>100</v>
+      <c r="G27" s="23">
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <f t="shared" si="1"/>
         <v>220033</v>
@@ -1578,13 +1675,16 @@
       <c r="F28" s="16">
         <v>1</v>
       </c>
-      <c r="G28" s="16">
-        <v>100</v>
+      <c r="G28" s="24">
+        <v>1</v>
       </c>
       <c r="H28" s="16">
-        <v>1</v>
-      </c>
-      <c r="I28" s="17">
+        <v>100</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1</v>
+      </c>
+      <c r="J28" s="17">
         <v>3</v>
       </c>
     </row>
@@ -1603,7 +1703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>

--- a/XLSX/MonsterGroupTable.xlsx
+++ b/XLSX/MonsterGroupTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B0B1A7-7148-49C4-8BF6-3E590BB1F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E798A0E-878A-4799-85EC-68C5E281D8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30990" yWindow="120" windowWidth="21600" windowHeight="12735" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="28680" yWindow="-1695" windowWidth="29040" windowHeight="17640" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!MonsterGroup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>;키값</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,16 +416,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -762,7 +763,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -793,7 +794,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>23</v>
@@ -951,7 +952,7 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6">
@@ -983,7 +984,7 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7">
@@ -1015,7 +1016,7 @@
       <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>1</v>
       </c>
       <c r="H8" s="16">
@@ -1147,7 +1148,7 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="3">
         <v>1</v>
       </c>
       <c r="H12">
@@ -1180,7 +1181,7 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="3">
         <v>1</v>
       </c>
       <c r="H13">
@@ -1213,7 +1214,7 @@
       <c r="F14" s="16">
         <v>1</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <v>1</v>
       </c>
       <c r="H14" s="16">
@@ -1277,7 +1278,7 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="3">
         <v>1</v>
       </c>
       <c r="H16">
@@ -1373,7 +1374,7 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19">
@@ -1405,7 +1406,7 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="3">
         <v>1</v>
       </c>
       <c r="H20">
@@ -1437,7 +1438,7 @@
       <c r="F21" s="16">
         <v>1</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <v>1</v>
       </c>
       <c r="H21" s="16">
@@ -1505,7 +1506,7 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="3">
         <v>1</v>
       </c>
       <c r="H23">
@@ -1607,7 +1608,7 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="3">
         <v>1</v>
       </c>
       <c r="H26">
@@ -1641,7 +1642,7 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="3">
         <v>1</v>
       </c>
       <c r="H27">
@@ -1675,7 +1676,7 @@
       <c r="F28" s="16">
         <v>1</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="23">
         <v>1</v>
       </c>
       <c r="H28" s="16">
